--- a/sb3-Results.xlsx
+++ b/sb3-Results.xlsx
@@ -194,7 +194,862 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Rank1, Rank5 and Rank10</a:t>
+              <a:t>data_ears</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$M$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="900699356"/>
+        <c:axId val="260983717"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="900699356"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Jensen–Shannon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260983717"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="260983717"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900699356"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>data_ears</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$M$8</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$M$9</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$M$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1592406509"/>
+        <c:axId val="101521400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1592406509"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Cosine</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101521400"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101521400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592406509"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>data_yolo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$M$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$M$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$M$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$M$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$M$18</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$M$21</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="652419053"/>
+        <c:axId val="90797750"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="652419053"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Cosine</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90797750"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90797750"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652419053"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>data_yolo</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -295,11 +1150,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="727320921"/>
-        <c:axId val="544124523"/>
+        <c:axId val="836109545"/>
+        <c:axId val="2031181815"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="727320921"/>
+        <c:axId val="836109545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,10 +1206,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544124523"/>
+        <c:crossAx val="2031181815"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544124523"/>
+        <c:axId val="2031181815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,862 +1284,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727320921"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Rank1, Rank5 and Rank10</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$13:$M$13</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$M$14</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$13:$M$13</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$M$15</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$13:$M$13</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$16:$M$16</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1498969485"/>
-        <c:axId val="335801526"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1498969485"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Jensen–Shannon</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="335801526"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="335801526"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1498969485"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Rank1, Rank5 and Rank10</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$18:$M$18</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$M$19</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$18:$M$18</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$20:$M$20</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$18:$M$18</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$21:$M$21</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="614175232"/>
-        <c:axId val="203672543"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="614175232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Cosine</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="203672543"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="203672543"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="614175232"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Rank1, Rank5 and Rank10</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$13:$M$13</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$M$14</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$13:$M$13</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$M$15</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$13:$M$13</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$16:$M$16</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="2144417557"/>
-        <c:axId val="1547928094"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2144417557"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Jensen–Shannon</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1547928094"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1547928094"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2144417557"/>
+        <c:crossAx val="836109545"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1364,10 +1364,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7286625" cy="4505325"/>
     <xdr:graphicFrame>
@@ -1391,8 +1391,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7286625" cy="4505325"/>
     <xdr:graphicFrame>
